--- a/calculations/2500045318_6-4651935_r00_CFT.xlsx
+++ b/calculations/2500045318_6-4651935_r00_CFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!doc\!v\py\xls\calulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!doc\python\CBS\xls\Extracting_calculations\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7D2D7-1E10-4A1D-A4AC-1BA477010D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB7E76-6D75-4707-827C-5BC06B2BC532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8328BA29-BB28-43D0-87CF-28C6877756A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8328BA29-BB28-43D0-87CF-28C6877756A7}"/>
   </bookViews>
   <sheets>
     <sheet name="роботи" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>NASTRO TRASP. X COCLEA FISSA(TAPP.INOX)</t>
   </si>
@@ -549,6 +549,55 @@
   <dxfs count="64">
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
@@ -761,20 +810,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1421,41 +1456,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1470,75 +1470,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7C8301B1-00E4-4969-A4EF-6BDD6B1718BC}" name="Table1" displayName="Table1" ref="A1:N2" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7C8301B1-00E4-4969-A4EF-6BDD6B1718BC}" name="Table1" displayName="Table1" ref="A1:N2" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:N2" xr:uid="{B5A14630-0421-403C-B70C-939F244F8235}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{53BE8971-2E5A-46AD-A05D-89380952761F}" name="Pos" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{6F770D4B-7D47-4FC5-B75E-C89F3D7F3E03}" name="Part No." dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{469E796D-856F-4FF8-938D-04032C6C892B}" name="rev" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{DC88B135-21D7-4FF8-B3B1-BE07A1786D32}" name="Стовпець1" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{09FA1946-18A4-4354-9350-FFD6EA901F44}" name="Стовпець2" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{2DE621AD-F1F3-42A0-9D83-1FBA5E408A0F}" name="Стовпець3" dataDxfId="49"/>
-    <tableColumn id="20" xr3:uid="{1743B9A6-84FC-47E4-8ABC-AF5F0C350A0E}" name="Стовпець4" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{ACDB30AB-807B-41D5-9643-16456BB0391A}" name="Стовпець5" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{7630EF5A-4C41-48D8-B086-7349BB1E0CAB}" name="Стовпець6" dataDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{E2951303-CFB4-408B-BF9A-4F259EFC97E1}" name="Стовпець7" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{6C0F13E2-755F-4437-9EF2-8D982DC98BE0}" name="Стовпець8" dataDxfId="44"/>
-    <tableColumn id="25" xr3:uid="{94D66558-AD78-4617-9AC0-33FB2DA4AAA8}" name="Стовпець9" dataDxfId="43"/>
-    <tableColumn id="26" xr3:uid="{6867BF48-E8DE-480B-8EF2-8997731C20AC}" name="Стовпець10" dataDxfId="42"/>
-    <tableColumn id="27" xr3:uid="{AD6C1DB5-56C7-4995-9ABF-1B1FE7385CA4}" name="Стовпець11" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{53BE8971-2E5A-46AD-A05D-89380952761F}" name="Pos" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{6F770D4B-7D47-4FC5-B75E-C89F3D7F3E03}" name="Part No." dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{469E796D-856F-4FF8-938D-04032C6C892B}" name="rev" dataDxfId="56"/>
+    <tableColumn id="17" xr3:uid="{DC88B135-21D7-4FF8-B3B1-BE07A1786D32}" name="Стовпець1" dataDxfId="55"/>
+    <tableColumn id="18" xr3:uid="{09FA1946-18A4-4354-9350-FFD6EA901F44}" name="Стовпець2" dataDxfId="54"/>
+    <tableColumn id="19" xr3:uid="{2DE621AD-F1F3-42A0-9D83-1FBA5E408A0F}" name="Стовпець3" dataDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{1743B9A6-84FC-47E4-8ABC-AF5F0C350A0E}" name="Стовпець4" dataDxfId="52"/>
+    <tableColumn id="21" xr3:uid="{ACDB30AB-807B-41D5-9643-16456BB0391A}" name="Стовпець5" dataDxfId="51"/>
+    <tableColumn id="22" xr3:uid="{7630EF5A-4C41-48D8-B086-7349BB1E0CAB}" name="Стовпець6" dataDxfId="50"/>
+    <tableColumn id="23" xr3:uid="{E2951303-CFB4-408B-BF9A-4F259EFC97E1}" name="Стовпець7" dataDxfId="49"/>
+    <tableColumn id="24" xr3:uid="{6C0F13E2-755F-4437-9EF2-8D982DC98BE0}" name="Стовпець8" dataDxfId="48"/>
+    <tableColumn id="25" xr3:uid="{94D66558-AD78-4617-9AC0-33FB2DA4AAA8}" name="Стовпець9" dataDxfId="47"/>
+    <tableColumn id="26" xr3:uid="{6867BF48-E8DE-480B-8EF2-8997731C20AC}" name="Стовпець10" dataDxfId="46"/>
+    <tableColumn id="27" xr3:uid="{AD6C1DB5-56C7-4995-9ABF-1B1FE7385CA4}" name="Стовпець11" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80F4FBD9-240B-4265-B28A-51800F9A78DC}" name="Materialy" displayName="Materialy" ref="A1:W20" totalsRowShown="0" headerRowDxfId="38">
-  <autoFilter ref="A1:W20" xr:uid="{78248105-A670-485F-AE33-8545BE979459}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80F4FBD9-240B-4265-B28A-51800F9A78DC}" name="Materialy" displayName="Materialy" ref="A1:W21" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="A1:W21" xr:uid="{78248105-A670-485F-AE33-8545BE979459}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BDBAB895-48E4-4D93-881A-D0C1503FB4D4}" name="Part" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{AE93B3F9-D298-4379-9707-5873EBF1A440}" name="Part повторно" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{BDBAB895-48E4-4D93-881A-D0C1503FB4D4}" name="Part" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{AE93B3F9-D298-4379-9707-5873EBF1A440}" name="Part повторно" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>Materialy[[#This Row],[Part]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{117BF6EA-105F-46DA-9B63-B3163404AF64}" name="N заготовки " dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{117BF6EA-105F-46DA-9B63-B3163404AF64}" name="N заготовки " dataDxfId="39" totalsRowDxfId="38"/>
     <tableColumn id="4" xr3:uid="{4EB2758F-F306-4DF8-AE27-A918885280A7}" name="к-сьт шт"/>
     <tableColumn id="5" xr3:uid="{EA516193-3016-479E-B95D-79E63398F788}" name="тип матеріалу"/>
     <tableColumn id="20" xr3:uid="{135A5AE5-5818-41CD-917B-20F0A53846B4}" name="довжина, мм; або шт"/>
     <tableColumn id="19" xr3:uid="{DC7B0840-D734-4995-A8C7-5A30505DB8D2}" name="ширина, мм для листів"/>
-    <tableColumn id="6" xr3:uid="{5F00E9AC-5BB7-4601-A8B0-201333AD5DCC}" name="Вартість лазерної порізки" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{2E3FCA76-BF19-4FEA-BCDC-84675E2512FE}" name="заг варт лаз порізки" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{5F00E9AC-5BB7-4601-A8B0-201333AD5DCC}" name="Вартість лазерної порізки" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{2E3FCA76-BF19-4FEA-BCDC-84675E2512FE}" name="заг варт лаз порізки" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>IFERROR(Materialy[[#This Row],[Вартість лазерної порізки]]*Materialy[[#This Row],[к-сьт шт]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6535FF29-3556-4B8A-9475-2AB13B0CC862}" name="Тип матеріалу2" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{617EF2AD-EE2E-4FBD-9BEC-F639A2811983}" name="ксть мат на 1 шт" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="8" xr3:uid="{6535FF29-3556-4B8A-9475-2AB13B0CC862}" name="Тип матеріалу2" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{617EF2AD-EE2E-4FBD-9BEC-F639A2811983}" name="ксть мат на 1 шт" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>IFERROR(IF(OR(L2="мм",L2="mm",L2="шт",),F2,IF(L2="мм^2",F2*G2,"")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F4015722-AAFD-482C-9227-26FE71F0C6D9}" name="од вим" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{B30D65F3-D815-4D32-B64A-F6386268E8F8}" name="маса од. мат" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{5F2B1918-AE79-44D5-9171-68E35B0DB7B9}" name="од. виміру" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{D5A447E4-BEA2-4EB3-8C86-CCE98C4A3932}" name="заг довжина труб чи пластику, м або шт" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="10" xr3:uid="{F4015722-AAFD-482C-9227-26FE71F0C6D9}" name="од вим" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{B30D65F3-D815-4D32-B64A-F6386268E8F8}" name="маса од. мат" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{5F2B1918-AE79-44D5-9171-68E35B0DB7B9}" name="од. виміру" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{D5A447E4-BEA2-4EB3-8C86-CCE98C4A3932}" name="заг довжина труб чи пластику, м або шт" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IFERROR(IF(AND(Q2="€/m",L2="мм"),(F2/1000)*D2,IF(AND(Q2="€/шт",L2="шт"),F2*D2,"")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1EDAE18E-2F59-4940-829D-5A23E87208E1}" name="Стовпець1" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{893FFFC0-47C1-4F29-9C63-C69E52D9CD25}" name="Стовпець2" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{CB62B1B4-FE23-4BBF-848B-FE8E467B14DA}" name="Стовпець3" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{00FDC3A4-FE6C-46CC-AEE5-543FA5B684EB}" name="Стовпець4" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{7C3187D7-4534-40F9-8C83-33E14E4477D8}" name="Стовпець5" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{E7A211B5-290A-44AA-8898-91D923E18121}" name="Стовпець6" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{1EDAE18E-2F59-4940-829D-5A23E87208E1}" name="Стовпець1" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{893FFFC0-47C1-4F29-9C63-C69E52D9CD25}" name="Стовпець2" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{CB62B1B4-FE23-4BBF-848B-FE8E467B14DA}" name="Стовпець3" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{00FDC3A4-FE6C-46CC-AEE5-543FA5B684EB}" name="Стовпець4" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{7C3187D7-4534-40F9-8C83-33E14E4477D8}" name="Стовпець5" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{E7A211B5-290A-44AA-8898-91D923E18121}" name="Стовпець6" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="22" xr3:uid="{0452194D-9326-4AF5-BEA4-233DA8AA562F}" name="Стовпець7"/>
-    <tableColumn id="23" xr3:uid="{B9FC6D43-88A0-436F-8080-02EE377BEEE7}" name="Стовпець8" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{B9FC6D43-88A0-436F-8080-02EE377BEEE7}" name="Стовпець8" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65EC3F2A-F8DC-4BDD-83FD-441AAC65852C}" name="Info_additional" displayName="Info_additional" ref="A1:L2" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65EC3F2A-F8DC-4BDD-83FD-441AAC65852C}" name="Info_additional" displayName="Info_additional" ref="A1:L2" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:L2" xr:uid="{0D2E391B-CBA5-4B6D-B3DF-42D334F48527}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{328A6339-F8CB-4A5D-94BE-C6CD46F1F486}" name="Номер деталі" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{39A1B113-31FF-4F4F-A205-E4DFF0B95747}" name="Опис деталі" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{55180E24-9CBD-41E2-90F3-A22F83F279EC}" name="Опис українською" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{328A6339-F8CB-4A5D-94BE-C6CD46F1F486}" name="Номер деталі" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{39A1B113-31FF-4F4F-A205-E4DFF0B95747}" name="Опис деталі" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{55180E24-9CBD-41E2-90F3-A22F83F279EC}" name="Опис українською" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{8097FA06-3059-4A44-B852-5009EE7F3670}" name="Стовпець1"/>
     <tableColumn id="5" xr3:uid="{C9AEF34C-3995-4DD8-92F4-B4D0ABB3D2C1}" name="Стовпець2"/>
     <tableColumn id="6" xr3:uid="{83EDDEFD-0A02-407A-8B53-117B07E336A4}" name="Стовпець3"/>
@@ -1546,7 +1546,7 @@
     <tableColumn id="9" xr3:uid="{5DC0AF29-7274-4AA9-9725-1EDE8EDE5F1B}" name="Стовпець5"/>
     <tableColumn id="7" xr3:uid="{1F9D1F74-A36E-4BD0-B4B4-C697C0E3C954}" name="Стовпець6"/>
     <tableColumn id="8" xr3:uid="{192C5134-72A1-4C5C-A964-CFAE196F4F1B}" name="Стовпець7"/>
-    <tableColumn id="10" xr3:uid="{65BB09BA-A04D-4F21-84EE-C5F3AAD56F2F}" name="Стовпець8" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{65BB09BA-A04D-4F21-84EE-C5F3AAD56F2F}" name="Стовпець8" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{F3E86F87-C7BE-4DE4-84A7-24E338A24627}" name="Стовпець9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2071,18 +2071,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:N2">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
@@ -2094,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42389E42-BCDB-4CBD-9974-3547E713FA69}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2286,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P4" s="10"/>
       <c r="R4" s="3"/>
@@ -2333,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="10"/>
       <c r="R5" s="3"/>
@@ -2380,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P6" s="10"/>
       <c r="R6" s="3"/>
@@ -2427,43 +2427,38 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>1200</v>
-      </c>
-      <c r="H7" s="10">
-        <v>4.8499999999999996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10">
-        <v>4.8499999999999996</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K7" s="12">
-        <v>240000</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M7" s="11">
-        <v>23.55</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>8</v>
       </c>
       <c r="P7" s="10"/>
       <c r="R7" s="3"/>
@@ -2479,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2531,38 +2526,43 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4.8499999999999996</v>
+      </c>
       <c r="I9" s="10">
-        <v>0</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K9" s="12">
-        <v>1</v>
+        <v>240000</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>4</v>
+        <v>23.55</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="P9" s="10"/>
       <c r="R9" s="3"/>
@@ -2578,35 +2578,35 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K10" s="12">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M10" s="11">
-        <v>0.89007603061506002</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="10">
         <v>4</v>
@@ -2624,17 +2624,17 @@
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
-        <v>5391270</v>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="F11">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10">
@@ -2644,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="K11" s="12">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -2656,7 +2656,7 @@
         <v>18</v>
       </c>
       <c r="O11" s="10">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="P11" s="10"/>
       <c r="R11" s="3"/>
@@ -2672,43 +2672,38 @@
         <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>5114349</v>
+        <v>5391270</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>220</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.8</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K12" s="12">
-        <v>33000</v>
+        <v>1200</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M12" s="11">
-        <v>11.775</v>
+        <v>0.89007603061506002</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1.2</v>
       </c>
       <c r="P12" s="10"/>
       <c r="R12" s="3"/>
@@ -2724,37 +2719,37 @@
         <v>1</v>
       </c>
       <c r="C13" s="5">
-        <v>5552088</v>
+        <v>5114349</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="H13" s="10">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="10">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="12">
-        <v>13125</v>
+        <v>33000</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="11">
-        <v>23.55</v>
+        <v>11.775</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>15</v>
@@ -2775,39 +2770,44 @@
       <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
+      <c r="C14" s="5">
+        <v>5552088</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.25</v>
+      </c>
       <c r="I14" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="12">
-        <v>25</v>
+        <v>13125</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M14" s="11">
-        <v>9.8897336735006593</v>
+        <v>23.55</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0.05</v>
+        <v>15</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="P14" s="10"/>
       <c r="R14" s="3"/>
@@ -2816,32 +2816,45 @@
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5"/>
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="K15" s="12">
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="M15" s="11">
+        <v>9.8897336735006593</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.05</v>
       </c>
       <c r="P15" s="10"/>
       <c r="R15" s="3"/>
@@ -2850,7 +2863,7 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3019,14 +3032,48 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
     </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="U1 U21:U1048576">
-    <cfRule type="expression" dxfId="40" priority="2">
+  <conditionalFormatting sqref="U1 U22:U1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(U1=0,B1&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H21:H1048576">
-    <cfRule type="expression" dxfId="39" priority="1">
+  <conditionalFormatting sqref="H1 H22:H1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(J1="лист",H1=0)</formula>
     </cfRule>
   </conditionalFormatting>
